--- a/hw_2/module_4_task_2.xlsx
+++ b/hw_2/module_4_task_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\Desktop\1\module_testing\hw_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1234A5-F6A6-4D7F-A395-A116DA6458D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B920226A-086C-4032-84AC-CBBC506F0782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{0861009E-620E-42F4-A7CE-5A21C66E0B2F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{0861009E-620E-42F4-A7CE-5A21C66E0B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Среднее значение" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
   <si>
     <t>Идентификатор теста</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>Вызвать функцию и передать список содержащий 1000 элементов</t>
+  </si>
+  <si>
+    <t>TypeError</t>
+  </si>
+  <si>
+    <t>PASSED</t>
   </si>
 </sst>
 </file>
@@ -319,7 +325,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -364,12 +370,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -399,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -421,15 +439,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -438,6 +462,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -748,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2155770F-9ACB-4763-AABA-BE2D6CD206B5}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -810,458 +839,538 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f>AVERAGE(1, 2, 3)</f>
         <v>2</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="10">
+        <v>2</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f>AVERAGE(-1, -2, -3)</f>
         <v>-2</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="10">
+        <v>-2</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>AVERAGE(-1, 2, -3)</f>
         <v>-0.66666666666666663</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="10">
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f>AVERAGE(0, 0, 0)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f>AVERAGE(1, 0, 3)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="10">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f>AVERAGE(-1, 0, -3)</f>
         <v>-1.3333333333333333</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="10">
+        <v>-1.3333333333333333</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f>AVERAGE(1, 1, 1)</f>
         <v>1</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <f>AVERAGE(3, 2, 1)</f>
         <v>2</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="10">
+        <v>2</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f>AVERAGE(1, 2, 3)</f>
         <v>2</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="10">
+        <v>2</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>AVERAGE(1, 100000, 2, 100000000)</f>
         <v>25025000.75</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="G16" s="10">
+        <v>25025000.75</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f>AVERAGE(1, 2.5, 3.9)</f>
         <v>2.4666666666666668</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="10">
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f>AVERAGE(1, 2, 3)</f>
         <v>2</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="G18" s="10">
+        <v>2</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f>AVERAGE(1, 2.5, 3)</f>
         <v>2.1666666666666665</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="10">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="F20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="F21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="F22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>85</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="F23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>86</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="G24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="G26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/hw_2/module_4_task_2.xlsx
+++ b/hw_2/module_4_task_2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\Desktop\1\module_testing\hw_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B920226A-086C-4032-84AC-CBBC506F0782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D90F3C-D517-4065-9300-DCAA1B3C988A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{0861009E-620E-42F4-A7CE-5A21C66E0B2F}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{0861009E-620E-42F4-A7CE-5A21C66E0B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Среднее значение" sheetId="1" r:id="rId1"/>
+    <sheet name="Факториал" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="124">
   <si>
     <t>Идентификатор теста</t>
   </si>
@@ -318,6 +319,96 @@
   </si>
   <si>
     <t>PASSED</t>
+  </si>
+  <si>
+    <t>Корректность нахождения факториала</t>
+  </si>
+  <si>
+    <t>Проверка работы с положительными вещественными числами</t>
+  </si>
+  <si>
+    <t>Проверка работы с положительными целыми числами</t>
+  </si>
+  <si>
+    <t>Проверка работы с нулем</t>
+  </si>
+  <si>
+    <t>Проверка работы с отрицательным числом</t>
+  </si>
+  <si>
+    <t>Проверка работы с отрицательным вещественным числом</t>
+  </si>
+  <si>
+    <t>Проверка работы с большим числом (1000)</t>
+  </si>
+  <si>
+    <t>Обработка типа данных None</t>
+  </si>
+  <si>
+    <t>Обработка логического типа данных</t>
+  </si>
+  <si>
+    <t>Обработка работы типа данных list</t>
+  </si>
+  <si>
+    <t>Обработка работы типа данных int</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>-5.0</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать целое число</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать вещественное число</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать нулевое число</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать отрицательное целое число</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать отрицательное вещественное число</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать большое целое число (1000)</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать None</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать логическую константу</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать список</t>
+  </si>
+  <si>
+    <t>AssertionError</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -417,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -454,6 +545,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -777,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2155770F-9ACB-4763-AABA-BE2D6CD206B5}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1377,4 +1471,336 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EF1CFD-9705-4AB0-BC95-161102859BA4}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" customWidth="1"/>
+    <col min="6" max="8" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="14">
+        <v>120</v>
+      </c>
+      <c r="G7" s="14">
+        <v>120</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="4">
+        <v>9.3326215443944102E+157</v>
+      </c>
+      <c r="G12" s="4">
+        <v>9.3326215443944102E+157</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="14">
+        <v>120</v>
+      </c>
+      <c r="G16" s="14">
+        <v>120</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D7:D9 D10:D11 D13:D16" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/hw_2/module_4_task_2.xlsx
+++ b/hw_2/module_4_task_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\Desktop\1\module_testing\hw_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D90F3C-D517-4065-9300-DCAA1B3C988A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE585DB6-D036-47A1-A384-8FCAF2291207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{0861009E-620E-42F4-A7CE-5A21C66E0B2F}"/>
+    <workbookView xWindow="11736" yWindow="276" windowWidth="11304" windowHeight="11772" activeTab="1" xr2:uid="{0861009E-620E-42F4-A7CE-5A21C66E0B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Среднее значение" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="135">
   <si>
     <t>Идентификатор теста</t>
   </si>
@@ -409,6 +409,39 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>Обработка работы типа данных float</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Проверка работы с обычными значениями</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-10</t>
   </si>
 </sst>
 </file>
@@ -1475,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EF1CFD-9705-4AB0-BC95-161102859BA4}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1547,42 +1580,42 @@
         <v>96</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>113</v>
       </c>
       <c r="F7" s="14">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G7" s="14">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>92</v>
+        <v>113</v>
+      </c>
+      <c r="F8" s="14">
+        <v>2</v>
+      </c>
+      <c r="G8" s="14">
+        <v>2</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>93</v>
@@ -1596,71 +1629,71 @@
         <v>94</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F9" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G9" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>57</v>
+        <v>113</v>
+      </c>
+      <c r="F10" s="14">
+        <v>24</v>
+      </c>
+      <c r="G10" s="14">
+        <v>24</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>57</v>
+        <v>113</v>
+      </c>
+      <c r="F11" s="14">
+        <v>120</v>
+      </c>
+      <c r="G11" s="14">
+        <v>120</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>93</v>
@@ -1674,133 +1707,394 @@
         <v>94</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="14">
+        <v>3628800</v>
+      </c>
+      <c r="G12" s="14">
+        <v>3628800</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1307674368000</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1307674368000</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="14">
+        <v>2.43290200817664E+18</v>
+      </c>
+      <c r="G14" s="14">
+        <v>2.43290200817664E+18</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="14">
+        <v>3.04140932017133E+64</v>
+      </c>
+      <c r="G15" s="14">
+        <v>3.04140932017133E+64</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F21" s="4">
         <v>9.3326215443944102E+157</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G21" s="4">
         <v>9.3326215443944102E+157</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="H21" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F22" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G22" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="H22" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F23" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G23" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="H23" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F24" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G24" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="H24" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F25" s="14">
         <v>120</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G25" s="14">
         <v>120</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H25" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="13" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D7:D9 D10:D11 D13:D16" numberStoredAsText="1"/>
+    <ignoredError sqref="D22:D25 D16:D18 D11 D20:D21 D7:D10 D12:D15 D19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>